--- a/PHP Server/Microprocessor_Section_B.xlsx
+++ b/PHP Server/Microprocessor_Section_B.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\micro_project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -42,84 +38,92 @@
     <t>2019/11/28</t>
   </si>
   <si>
+    <t>2019/11/30</t>
+  </si>
+  <si>
+    <t>17-00001-1</t>
+  </si>
+  <si>
     <t>Fahim</t>
   </si>
   <si>
     <t>4d:fd:dc:16:c9:f1</t>
   </si>
   <si>
+    <t>17-00002-1</t>
+  </si>
+  <si>
     <t>Sarah</t>
   </si>
   <si>
     <t>84:4a:1d:03:73:54</t>
   </si>
   <si>
+    <t>17-00003-1</t>
+  </si>
+  <si>
     <t>Tanmoy</t>
   </si>
   <si>
     <t>84:4a:1d:03:73:53</t>
   </si>
   <si>
+    <t>17-00004-1</t>
+  </si>
+  <si>
     <t>Sachi</t>
   </si>
   <si>
     <t>84:4a:1d:03:73:55</t>
   </si>
   <si>
+    <t>17-00005-1</t>
+  </si>
+  <si>
     <t>Priya</t>
   </si>
   <si>
     <t>84:4a:1d:03:73:56</t>
   </si>
   <si>
+    <t>17-00006-1</t>
+  </si>
+  <si>
     <t>Sahil</t>
   </si>
   <si>
     <t>84:4a:1d:03:73:57</t>
   </si>
   <si>
+    <t>17-00007-1</t>
+  </si>
+  <si>
     <t>Tasnim</t>
   </si>
   <si>
-    <t>4d:fd:dc:16:c9:f7</t>
+    <t>d4:3b:4:fb:10:8f</t>
+  </si>
+  <si>
+    <t>17-00008-1</t>
   </si>
   <si>
     <t>Saqib</t>
   </si>
   <si>
-    <t>84:4a:1d:03:73:58</t>
-  </si>
-  <si>
-    <t>17-00001-1</t>
-  </si>
-  <si>
-    <t>17-00002-1</t>
-  </si>
-  <si>
-    <t>17-00003-1</t>
-  </si>
-  <si>
-    <t>17-00004-1</t>
-  </si>
-  <si>
-    <t>17-00005-1</t>
-  </si>
-  <si>
-    <t>17-00006-1</t>
-  </si>
-  <si>
-    <t>17-00007-1</t>
-  </si>
-  <si>
-    <t>17-00008-1</t>
+    <t>00:ec:a:5f:38:a8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -130,40 +134,31 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -453,25 +448,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.28515625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true" style="0"/>
+    <col min="4" max="4" width="30.28515625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.5703125" customWidth="true" style="0"/>
+    <col min="6" max="6" width="13.85546875" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.28515625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,19 +494,22 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -522,19 +523,22 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>3.9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -548,19 +552,22 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>3.9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -574,19 +581,22 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>3.9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -600,19 +610,22 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>3.9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -626,19 +639,22 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>3.9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -652,19 +668,22 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>3.9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -678,19 +697,22 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -704,9 +726,22 @@
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>